--- a/October'21/23.10.2021/Daily Sales Info.xlsx
+++ b/October'21/23.10.2021/Daily Sales Info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="784" firstSheet="2" activeTab="22"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="784" firstSheet="2" activeTab="32"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -624,7 +624,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Windows User:</t>
         </r>
@@ -633,7 +633,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Tuhin Mobile Sale 50</t>
@@ -658,7 +658,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Windows User:</t>
         </r>
@@ -667,7 +667,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Jilani Mobile Sale 25</t>
@@ -682,7 +682,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Windows User:</t>
         </r>
@@ -691,7 +691,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Jilani Mobile Sale 25</t>
@@ -706,7 +706,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Windows User:</t>
         </r>
@@ -715,7 +715,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Desh Mobile Sale 25</t>
@@ -730,7 +730,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Windows User:</t>
         </r>
@@ -739,7 +739,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Desh Mobile Sale 25</t>
@@ -1413,7 +1413,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1519,19 +1519,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="13">
@@ -37129,8 +37116,8 @@
   <dimension ref="A1:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37457,7 +37444,7 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="28">
+      <c r="A9" s="19">
         <v>3</v>
       </c>
       <c r="B9" s="20">
@@ -37569,7 +37556,7 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="28">
+      <c r="A11" s="19">
         <v>5</v>
       </c>
       <c r="B11" s="20">
@@ -37677,7 +37664,7 @@
       </c>
     </row>
     <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="28">
+      <c r="A13" s="19">
         <v>7</v>
       </c>
       <c r="B13" s="20">
@@ -37789,7 +37776,7 @@
       </c>
     </row>
     <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="28">
+      <c r="A15" s="19">
         <v>9</v>
       </c>
       <c r="B15" s="20">
@@ -37889,7 +37876,7 @@
       </c>
     </row>
     <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="28">
+      <c r="A17" s="19">
         <v>11</v>
       </c>
       <c r="B17" s="20">
@@ -37993,7 +37980,7 @@
       </c>
     </row>
     <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="28">
+      <c r="A19" s="19">
         <v>13</v>
       </c>
       <c r="B19" s="20">
@@ -38095,7 +38082,7 @@
       </c>
     </row>
     <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="28">
+      <c r="A21" s="19">
         <v>15</v>
       </c>
       <c r="B21" s="20">
@@ -38204,7 +38191,7 @@
       </c>
     </row>
     <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="28">
+      <c r="A23" s="19">
         <v>17</v>
       </c>
       <c r="B23" s="20">
@@ -38314,7 +38301,7 @@
       </c>
     </row>
     <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="28">
+      <c r="A25" s="19">
         <v>19</v>
       </c>
       <c r="B25" s="20">
@@ -38375,7 +38362,7 @@
     </row>
     <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="28">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="B26" s="20">
         <v>1908446153</v>
@@ -38428,7 +38415,7 @@
       </c>
     </row>
     <row r="27" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="28">
+      <c r="A27" s="19">
         <v>21</v>
       </c>
       <c r="B27" s="20">
@@ -40390,9 +40377,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41685,7 +41672,7 @@
         <v>37</v>
       </c>
       <c r="D27" s="37">
-        <v>5599</v>
+        <v>5860</v>
       </c>
       <c r="E27" s="38"/>
       <c r="F27" s="39"/>
@@ -41697,15 +41684,15 @@
       <c r="L27" s="31"/>
       <c r="M27" s="31">
         <f t="shared" si="0"/>
-        <v>5599</v>
+        <v>5860</v>
       </c>
       <c r="N27" s="40">
         <f t="shared" si="1"/>
-        <v>5599</v>
+        <v>5860</v>
       </c>
       <c r="O27" s="25">
         <f t="shared" si="2"/>
-        <v>153.9725</v>
+        <v>161.15</v>
       </c>
       <c r="P27" s="41">
         <v>5600</v>
@@ -41715,15 +41702,15 @@
       </c>
       <c r="R27" s="24">
         <f t="shared" si="3"/>
-        <v>5345.0275000000001</v>
+        <v>5598.85</v>
       </c>
       <c r="S27" s="42">
         <f t="shared" si="4"/>
-        <v>53.1905</v>
+        <v>55.67</v>
       </c>
       <c r="T27" s="43">
         <f t="shared" si="5"/>
-        <v>-46.8095</v>
+        <v>-44.33</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -41734,7 +41721,7 @@
       <c r="C28" s="89"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
-        <v>192062</v>
+        <v>192323</v>
       </c>
       <c r="E28" s="45">
         <f>SUM(E7:E27)</f>
@@ -41770,15 +41757,15 @@
       </c>
       <c r="M28" s="45">
         <f t="shared" si="6"/>
-        <v>206532</v>
+        <v>206793</v>
       </c>
       <c r="N28" s="45">
         <f t="shared" si="6"/>
-        <v>216255</v>
+        <v>216516</v>
       </c>
       <c r="O28" s="46">
         <f t="shared" si="6"/>
-        <v>5679.6299999999992</v>
+        <v>5686.807499999999</v>
       </c>
       <c r="P28" s="45">
         <f t="shared" si="6"/>
@@ -41790,15 +41777,15 @@
       </c>
       <c r="R28" s="45">
         <f t="shared" si="6"/>
-        <v>207922.37000000002</v>
+        <v>208176.19250000003</v>
       </c>
       <c r="S28" s="45">
         <f t="shared" si="6"/>
-        <v>1962.0539999999999</v>
+        <v>1964.5335</v>
       </c>
       <c r="T28" s="47">
         <f t="shared" si="6"/>
-        <v>-690.94600000000014</v>
+        <v>-688.46650000000022</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -41809,7 +41796,7 @@
       <c r="C29" s="92"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>478325</v>
+        <v>478064</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="7">E4+E5-E28</f>
@@ -42181,7 +42168,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'23'!D29</f>
-        <v>478325</v>
+        <v>478064</v>
       </c>
       <c r="E4" s="2">
         <f>'23'!E29</f>
@@ -43359,7 +43346,7 @@
       <c r="C29" s="92"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>478325</v>
+        <v>478064</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="7">E4+E5-E28</f>
@@ -43731,7 +43718,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'24'!D29</f>
-        <v>478325</v>
+        <v>478064</v>
       </c>
       <c r="E4" s="2">
         <f>'24'!E29</f>
@@ -44909,7 +44896,7 @@
       <c r="C29" s="92"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>478325</v>
+        <v>478064</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="7">E4+E5-E28</f>
@@ -45281,7 +45268,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'25'!D29</f>
-        <v>478325</v>
+        <v>478064</v>
       </c>
       <c r="E4" s="2">
         <f>'25'!E29</f>
@@ -46459,7 +46446,7 @@
       <c r="C29" s="92"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>478325</v>
+        <v>478064</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="7">E4+E5-E28</f>
@@ -46831,7 +46818,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'26'!D29</f>
-        <v>478325</v>
+        <v>478064</v>
       </c>
       <c r="E4" s="2">
         <f>'26'!E29</f>
@@ -48009,7 +47996,7 @@
       <c r="C29" s="92"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>478325</v>
+        <v>478064</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="7">E4+E5-E28</f>
@@ -48381,7 +48368,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'27'!D29</f>
-        <v>478325</v>
+        <v>478064</v>
       </c>
       <c r="E4" s="2">
         <f>'27'!E29</f>
@@ -49559,7 +49546,7 @@
       <c r="C29" s="92"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>478325</v>
+        <v>478064</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="7">E4+E5-E28</f>
@@ -49931,7 +49918,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'28'!D29</f>
-        <v>478325</v>
+        <v>478064</v>
       </c>
       <c r="E4" s="2">
         <f>'28'!E29</f>
@@ -51109,7 +51096,7 @@
       <c r="C29" s="92"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>478325</v>
+        <v>478064</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="7">E4+E5-E28</f>
@@ -53191,7 +53178,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'29'!D29</f>
-        <v>478325</v>
+        <v>478064</v>
       </c>
       <c r="E4" s="2">
         <f>'29'!E29</f>
@@ -54369,7 +54356,7 @@
       <c r="C29" s="92"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>478325</v>
+        <v>478064</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="7">E4+E5-E28</f>
@@ -54741,7 +54728,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'30'!D29</f>
-        <v>478325</v>
+        <v>478064</v>
       </c>
       <c r="E4" s="2">
         <f>'30'!E29</f>
@@ -55919,7 +55906,7 @@
       <c r="C29" s="92"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>478325</v>
+        <v>478064</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="7">E4+E5-E28</f>
@@ -56198,7 +56185,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J33" sqref="J33"/>
+      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57981,7 +57968,7 @@
       </c>
       <c r="D27" s="21">
         <f>'1'!D27+'2'!D27+'3'!D27+'4'!D27+'5'!D27+'6'!D27+'7'!D27+'8'!D27+'9'!D27+'10'!D27+'11'!D27+'12'!D27+'13'!D27+'14'!D27+'15'!D27+'16'!D27+'17'!D27+'18'!D27+'19'!D27+'20'!D27+'21'!D27+'22'!D27+'23'!D27+'24'!D27+'25'!D27+'26'!D27+'27'!D27+'28'!D27+'29'!D27+'30'!D27+'31'!D27</f>
-        <v>162564</v>
+        <v>162825</v>
       </c>
       <c r="E27" s="21">
         <f>'1'!E27+'2'!E27+'3'!E27+'4'!E27+'5'!E27+'6'!E27+'7'!E27+'8'!E27+'9'!E27+'10'!E27+'11'!E27+'12'!E27+'13'!E27+'14'!E27+'15'!E27+'16'!E27+'17'!E27+'18'!E27+'19'!E27+'20'!E27+'21'!E27+'22'!E27+'23'!E27+'24'!E27+'25'!E27+'26'!E27+'27'!E27+'28'!E27+'29'!E27+'30'!E27+'31'!E27</f>
@@ -58017,15 +58004,15 @@
       </c>
       <c r="M27" s="31">
         <f t="shared" si="0"/>
-        <v>162564</v>
+        <v>162825</v>
       </c>
       <c r="N27" s="40">
         <f t="shared" si="1"/>
-        <v>166948</v>
+        <v>167209</v>
       </c>
       <c r="O27" s="25">
         <f t="shared" si="2"/>
-        <v>4470.51</v>
+        <v>4477.6875</v>
       </c>
       <c r="P27" s="41"/>
       <c r="Q27" s="26">
@@ -58034,15 +58021,15 @@
       </c>
       <c r="R27" s="24">
         <f t="shared" si="3"/>
-        <v>160627.49</v>
+        <v>160881.3125</v>
       </c>
       <c r="S27" s="42">
         <f t="shared" si="4"/>
-        <v>1544.3579999999999</v>
+        <v>1546.8374999999999</v>
       </c>
       <c r="T27" s="43">
         <f t="shared" si="5"/>
-        <v>-305.64200000000005</v>
+        <v>-303.16250000000014</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -58053,7 +58040,7 @@
       <c r="C28" s="89"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
-        <v>4592116</v>
+        <v>4592377</v>
       </c>
       <c r="E28" s="45">
         <f>SUM(E7:E27)</f>
@@ -58089,15 +58076,15 @@
       </c>
       <c r="M28" s="45">
         <f t="shared" si="6"/>
-        <v>4854896</v>
+        <v>4855157</v>
       </c>
       <c r="N28" s="45">
         <f t="shared" si="6"/>
-        <v>5299513</v>
+        <v>5299774</v>
       </c>
       <c r="O28" s="46">
         <f t="shared" si="6"/>
-        <v>133509.64000000001</v>
+        <v>133516.8175</v>
       </c>
       <c r="P28" s="45">
         <f t="shared" si="6"/>
@@ -58109,15 +58096,15 @@
       </c>
       <c r="R28" s="45">
         <f t="shared" si="6"/>
-        <v>5129876.3600000003</v>
+        <v>5130130.1825000001</v>
       </c>
       <c r="S28" s="45">
         <f t="shared" si="6"/>
-        <v>46121.512000000002</v>
+        <v>46123.991500000004</v>
       </c>
       <c r="T28" s="47">
         <f t="shared" si="6"/>
-        <v>9994.511999999997</v>
+        <v>9996.9914999999964</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -58128,7 +58115,7 @@
       <c r="C29" s="92"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>478325</v>
+        <v>478064</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="7">E4+E5-E28</f>
@@ -58410,8 +58397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
